--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07526583731085536</v>
+        <v>0.07539374411320002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06295058523695196</v>
+        <v>0.06206564517189537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1683601668806087</v>
+        <v>0.1666172669209271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1703390094322513</v>
+        <v>0.1685460491165952</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1718027752069285</v>
+        <v>0.1716485445327481</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3183726672354547</v>
+        <v>0.3205499583902923</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.134123482301563</v>
+        <v>0.1351160780503083</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1289927898053118</v>
+        <v>0.1287911421026638</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2630921975215551</v>
+        <v>0.2619181267531311</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1144859799939409</v>
+        <v>0.112458541444353</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1003720602229472</v>
+        <v>0.09829109817165309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.225003094734928</v>
+        <v>0.2291675299871627</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.215754688831438</v>
+        <v>0.2134062828684324</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2255415622325591</v>
+        <v>0.2229829057794208</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3695505142892977</v>
+        <v>0.3725922760742599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1646124460590268</v>
+        <v>0.1654757979897976</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1623770960321514</v>
+        <v>0.165184485398912</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3014983427228093</v>
+        <v>0.303239564046642</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.05237457540463118</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.101261842849015</v>
+        <v>0.1012618428490149</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.02400665420801791</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00910949713384621</v>
+        <v>0.008607703003777573</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01188141873877981</v>
+        <v>0.01208277260361808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0437460487925137</v>
+        <v>0.04403376311867029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02723453003875031</v>
+        <v>0.02756357435962939</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04248930951515932</v>
+        <v>0.04195818903117168</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09112262114560614</v>
+        <v>0.09001867120701071</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01893616777155506</v>
+        <v>0.01944793717915023</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02874436333268345</v>
+        <v>0.02921131708635622</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06980274848757581</v>
+        <v>0.06944031543947841</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01921442780484633</v>
+        <v>0.01862273827100464</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02356055160171414</v>
+        <v>0.02310016997728869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06257041183382901</v>
+        <v>0.06268052955924786</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04738856003901654</v>
+        <v>0.04790707872281285</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06371565572869933</v>
+        <v>0.0631493508009206</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1124948718743439</v>
+        <v>0.1117362002093727</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02978122787658765</v>
+        <v>0.03034736253090154</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0404397591625256</v>
+        <v>0.04146036483142709</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0839254591521405</v>
+        <v>0.08370292490817099</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.02970282042171642</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.07781239024148649</v>
+        <v>0.07781239024148651</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01904751506428077</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004167729118520041</v>
+        <v>0.00411188902736049</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008820581933057807</v>
+        <v>0.009837256521772371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0163282682021976</v>
+        <v>0.01616307502354024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01239950528999044</v>
+        <v>0.01140063041129621</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01604025541835281</v>
+        <v>0.0161137862227286</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06335784616526394</v>
+        <v>0.06085528858298597</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01000988718427494</v>
+        <v>0.01087795416504894</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01666156488438225</v>
+        <v>0.01595327893114503</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04302123476101315</v>
+        <v>0.04208488890666492</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0351665494661786</v>
+        <v>0.03439981939905433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03712821644007899</v>
+        <v>0.03550561472761764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03850280656477375</v>
+        <v>0.03975777327955048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04598532452658478</v>
+        <v>0.04413722660204963</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04789432351329027</v>
+        <v>0.04825533421985267</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09479466523608607</v>
+        <v>0.09568650380599497</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03133854335620743</v>
+        <v>0.03177893905181033</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03719133337726942</v>
+        <v>0.03736745604072254</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06256305368361498</v>
+        <v>0.06286080228825738</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.03140944910035606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06988231221167299</v>
+        <v>0.069882312211673</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.09285676926917645</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02922660809258812</v>
+        <v>0.02951507756960713</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02590789492971508</v>
+        <v>0.025456641678168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06202944060172214</v>
+        <v>0.06308123096275932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08271433233116744</v>
+        <v>0.0836038748400711</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07938244801275965</v>
+        <v>0.08022030382063407</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1408043720778339</v>
+        <v>0.141475109710803</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05896702313176364</v>
+        <v>0.05902836908671661</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05534110202092175</v>
+        <v>0.05536444052083147</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1056911444515814</v>
+        <v>0.1054641748036787</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04283663481780383</v>
+        <v>0.04238652354038559</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03746005624701524</v>
+        <v>0.03770456588093783</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07947403666600736</v>
+        <v>0.07935787977993802</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1029611444951761</v>
+        <v>0.1033306258978736</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09911844801972727</v>
+        <v>0.1010438868260099</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1599388961426897</v>
+        <v>0.1592683879858612</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07121501339115785</v>
+        <v>0.07165010973645963</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06740684623483266</v>
+        <v>0.0669934238802825</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1186716621820711</v>
+        <v>0.118032916240287</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>73357</v>
+        <v>73482</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>47487</v>
+        <v>46819</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>97401</v>
+        <v>96393</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>227879</v>
+        <v>225480</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>170885</v>
+        <v>170732</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>261714</v>
+        <v>263504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>310153</v>
+        <v>312448</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>225609</v>
+        <v>225257</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>368478</v>
+        <v>366834</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>111583</v>
+        <v>109607</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75715</v>
+        <v>74146</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>130171</v>
+        <v>132580</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>288636</v>
+        <v>285494</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>224337</v>
+        <v>221792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>303785</v>
+        <v>306285</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>380656</v>
+        <v>382653</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>283999</v>
+        <v>288909</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>422269</v>
+        <v>424707</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17891</v>
+        <v>16905</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24670</v>
+        <v>25088</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>97578</v>
+        <v>98220</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>47873</v>
+        <v>48451</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>84481</v>
+        <v>83425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>197863</v>
+        <v>195466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>70476</v>
+        <v>72381</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>116837</v>
+        <v>118735</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>307269</v>
+        <v>305673</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37736</v>
+        <v>36574</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48921</v>
+        <v>47965</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>139567</v>
+        <v>139813</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>83300</v>
+        <v>84211</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>126686</v>
+        <v>125560</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>244270</v>
+        <v>242623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>110839</v>
+        <v>112946</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>164375</v>
+        <v>168523</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>369436</v>
+        <v>368457</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4824</v>
+        <v>5380</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11619</v>
+        <v>11501</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5687</v>
+        <v>5229</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8808</v>
+        <v>8849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46560</v>
+        <v>44721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9407</v>
+        <v>10223</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18262</v>
+        <v>17485</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>62229</v>
+        <v>60874</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16921</v>
+        <v>16553</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20305</v>
+        <v>19418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27398</v>
+        <v>28291</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21090</v>
+        <v>20243</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26301</v>
+        <v>26499</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>69662</v>
+        <v>70318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29452</v>
+        <v>29866</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40763</v>
+        <v>40956</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>90495</v>
+        <v>90926</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>99949</v>
+        <v>100935</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>87507</v>
+        <v>85983</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>218386</v>
+        <v>222089</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>293986</v>
+        <v>297147</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>280387</v>
+        <v>283346</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>524962</v>
+        <v>527463</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>411237</v>
+        <v>411665</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>382391</v>
+        <v>382553</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>766154</v>
+        <v>764509</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>146492</v>
+        <v>144953</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>126526</v>
+        <v>127352</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>279803</v>
+        <v>279394</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>365948</v>
+        <v>367261</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>350096</v>
+        <v>356897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>596301</v>
+        <v>593801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>496654</v>
+        <v>499689</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>465762</v>
+        <v>462906</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>860250</v>
+        <v>855619</v>
       </c>
     </row>
     <row r="20">
